--- a/data/trans_dic/P16A02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 15,37</t>
+          <t>9,25; 15,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,4</t>
+          <t>9,94; 17,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 23,66</t>
+          <t>16,12; 23,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,4; 22,17</t>
+          <t>15,35; 22,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 25,3</t>
+          <t>15,99; 25,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,89; 31,1</t>
+          <t>20,94; 31,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,56; 28,56</t>
+          <t>19,28; 28,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 35,38</t>
+          <t>28,34; 36,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,4</t>
+          <t>13,13; 18,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 21,23</t>
+          <t>15,53; 21,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 24,67</t>
+          <t>18,87; 24,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 27,38</t>
+          <t>22,51; 27,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 20,08</t>
+          <t>12,08; 19,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 22,62</t>
+          <t>14,25; 22,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 21,79</t>
+          <t>13,79; 21,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,05; 24,8</t>
+          <t>16,89; 24,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 27,24</t>
+          <t>18,28; 27,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 38,03</t>
+          <t>27,12; 38,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 30,72</t>
+          <t>21,33; 30,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,96; 36,2</t>
+          <t>27,87; 35,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 22,28</t>
+          <t>16,38; 22,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,57</t>
+          <t>21,41; 28,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,82; 24,75</t>
+          <t>18,62; 24,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,18; 28,71</t>
+          <t>23,08; 28,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,86</t>
+          <t>10,15; 15,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 25,01</t>
+          <t>17,82; 24,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 23,41</t>
+          <t>16,7; 23,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 29,15</t>
+          <t>6,36; 29,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 30,54</t>
+          <t>17,53; 30,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 34,8</t>
+          <t>21,96; 34,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,23; 43,8</t>
+          <t>28,51; 43,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,4; 54,34</t>
+          <t>41,17; 53,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,36</t>
+          <t>12,96; 18,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 26,59</t>
+          <t>20,48; 26,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 27,12</t>
+          <t>20,63; 27,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 34,14</t>
+          <t>10,2; 34,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 18,39</t>
+          <t>14,33; 18,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 22,66</t>
+          <t>18,05; 23,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 22,4</t>
+          <t>17,56; 22,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,78; 31,87</t>
+          <t>25,8; 31,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 24,84</t>
+          <t>19,2; 25,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,85; 33,6</t>
+          <t>26,62; 33,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,53; 32,29</t>
+          <t>25,58; 32,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,95; 74,21</t>
+          <t>37,93; 74,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 20,1</t>
+          <t>16,52; 19,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 26,27</t>
+          <t>22,13; 26,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 25,61</t>
+          <t>21,76; 25,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,46; 59,12</t>
+          <t>32,26; 56,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,01</t>
+          <t>10,74; 17,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,83; 21,17</t>
+          <t>14,45; 21,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 21,71</t>
+          <t>15,7; 22,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,05; 31,62</t>
+          <t>22,79; 31,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 30,73</t>
+          <t>23,48; 30,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,65; 41,74</t>
+          <t>34,86; 41,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 39,54</t>
+          <t>32,81; 39,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,57; 49,6</t>
+          <t>31,28; 49,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,29; 24,89</t>
+          <t>19,66; 24,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,6; 32,98</t>
+          <t>27,57; 33,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,77; 30,57</t>
+          <t>25,84; 31,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 41,37</t>
+          <t>30,99; 41,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,24</t>
+          <t>3,9; 9,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,56</t>
+          <t>4,62; 10,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 17,65</t>
+          <t>9,25; 17,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 22,26</t>
+          <t>7,14; 23,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,5; 27,57</t>
+          <t>22,36; 27,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,37; 39,02</t>
+          <t>33,35; 39,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,02; 35,57</t>
+          <t>29,56; 35,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,28; 41,77</t>
+          <t>35,43; 41,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,3; 23,45</t>
+          <t>19,17; 23,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,25; 33,48</t>
+          <t>28,32; 33,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 31,2</t>
+          <t>26,04; 31,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,13; 35,6</t>
+          <t>29,37; 35,6</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 15,25</t>
+          <t>12,71; 15,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,2</t>
+          <t>16,55; 19,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 20,28</t>
+          <t>17,61; 20,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,19; 24,96</t>
+          <t>17,33; 24,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,5; 25,37</t>
+          <t>22,33; 25,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,2</t>
+          <t>31,86; 35,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,18; 32,55</t>
+          <t>29,39; 32,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,56; 53,0</t>
+          <t>37,95; 52,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,14; 20,03</t>
+          <t>18,01; 19,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,82; 26,96</t>
+          <t>24,67; 26,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,09; 26,14</t>
+          <t>23,98; 26,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,4; 39,59</t>
+          <t>29,53; 38,32</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58581</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>56831</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>84277</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>94244</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62467</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>80803</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>82489</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>143254</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>121048</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>137634</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>166765</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>237498</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43830; 72862</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43449; 74901</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69172; 102297</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77566; 114408</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>49035; 76894</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>65859; 98702</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66905; 98632</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>126811; 161144</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>102477; 141412</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>116703; 160446</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>146489; 190986</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>214487; 262240</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57544</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75727</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66079</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>93446</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>84134</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>108578</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>95590</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>122005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>141678</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>184305</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>161669</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>215451</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>44316; 72880</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59446; 93284</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>52020; 81279</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76378; 110996</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>67987; 103315</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>91415; 130630</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>79418; 114113</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>106634; 136761</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>120982; 164739</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>161414; 212761</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>139566; 186458</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>192688; 240132</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>69886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>132353</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>103909</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>117832</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39461</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73237</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>59896</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>78878</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>109347</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>205590</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>196710</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55030; 85198</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>111977; 155512</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>87166; 123062</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42529; 194014</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29405; 50595</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56643; 88402</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47355; 72936</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68711; 89533</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>92032; 129287</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>181473; 233978</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>141956; 187586</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>85162; 287618</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>201964</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>235614</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>229579</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>297376</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>155541</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>230207</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>237812</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>505168</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>357506</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>465821</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>467391</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>802544</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>177392; 229260</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>208872; 267875</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>201864; 256003</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>267019; 327211</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>137122; 178702</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>204082; 257841</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>211267; 264464</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>370988; 726877</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>322634; 390280</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>425864; 505747</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>429785; 505479</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>649331; 1130587</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48641</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>90881</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>116045</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>129047</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>153665</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>291701</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>266506</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>365777</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>382582</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>382551</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>494823</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37540; 61901</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>73761; 109398</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97421; 136942</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>108263; 148633</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>133541; 175105</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>265071; 318172</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>242250; 295250</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>262418; 415123</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>180495; 228838</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>350460; 419760</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>351143; 422304</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>407281; 542961</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18063</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19037</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>37790</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31244</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>311349</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>402343</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>354567</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>292731</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>329412</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>421380</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>392356</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>323975</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11627; 27883</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12270; 28577</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26550; 50158</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17169; 56444</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>279175; 341506</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>368901; 432898</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>319826; 385891</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>269334; 317763</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>296512; 362706</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>388534; 455611</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>356537; 429399</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>293942; 356244</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2273</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3144</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>454680</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>610443</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>637678</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>763190</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>806617</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1186869</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1096860</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1507812</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1261296</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1797312</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1734538</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2271002</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>415562; 496675</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>565369; 658184</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>596353; 684670</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>585173; 841542</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>754211; 853079</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1128697; 1247306</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1038094; 1155304</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1356466; 1891783</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1197169; 1322679</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1716913; 1867910</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1659087; 1805842</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2052127; 2663134</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A02-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
